--- a/differences_6_0.1.xlsx
+++ b/differences_6_0.1.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.07400000000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-0.01100000000000001</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.07800000000000001</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>-0.03800000000000003</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.05700000000000005</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
